--- a/evaluation/clusters.xlsx
+++ b/evaluation/clusters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NicoleHuang/OneDrive - Australian National University/COMP8800/diffSimilarTech/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{93DA1219-8839-6848-B48E-22FC5F3C9620}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E6F5458-3852-414E-93E3-A013E819F9EE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
